--- a/Dashboard_Fast-Food-Sale.xlsx
+++ b/Dashboard_Fast-Food-Sale.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sandeep\Data Science\Project-Fast_food Sale\"/>
@@ -23,12 +23,11 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="9" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
     <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId12"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,13 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,10 +454,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,10 +463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6108,28 +6100,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -6995,28 +6976,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -7162,6 +7132,32 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7223,6 +7219,32 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7674,28 +7696,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -9224,28 +9235,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:shade val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -9475,21 +9475,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -9500,7 +9500,7 @@
             </a:gradFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9950,28 +9950,15 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
     <a:ln>
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -13357,6 +13344,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13846,9 +13838,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -21432,7 +21423,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A65:C72" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="17" showAll="0">
@@ -21523,7 +21514,7 @@
     <dataField name=" Sale" fld="8" baseField="0" baseItem="0"/>
     <dataField name=" Profit" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -21534,24 +21525,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21571,7 +21544,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="K46:Q53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" numFmtId="17" showAll="0">
@@ -21798,848 +21771,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A46:C53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name=" Delivery" fld="2" baseField="0" baseItem="0"/>
-    <dataField name=" Pick up" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V3:W10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" Old Rates" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="K3:N11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" numFmtId="17" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item h="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item h="1" sd="0" x="2"/>
-        <item sd="0" x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="11"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name=" Total Expenses" fld="7" baseField="0" baseItem="0"/>
-    <dataField name=" Profit" fld="9" baseField="0" baseItem="0"/>
-    <dataField name=" Sale" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-  </colItems>
-  <dataFields count="6">
-    <dataField name=" Veg Biryani" fld="1" baseField="0" baseItem="0"/>
-    <dataField name=" Maggi" fld="2" baseField="0" baseItem="0"/>
-    <dataField name=" Non-veg Biryani" fld="3" baseField="0" baseItem="0"/>
-    <dataField name=" Egg Bhurji" fld="4" baseField="0" baseItem="0"/>
-    <dataField name=" Omlet" fld="5" baseField="0" baseItem="0"/>
-    <dataField name=" Chiken Kabab" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="4" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A32:S39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
@@ -23495,6 +22626,848 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A46:C53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name=" Delivery" fld="2" baseField="0" baseItem="0"/>
+    <dataField name=" Pick up" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="V3:W10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" Old Rates" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="K3:N11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" numFmtId="17" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item h="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="11"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name=" Total Expenses" fld="7" baseField="0" baseItem="0"/>
+    <dataField name=" Profit" fld="9" baseField="0" baseItem="0"/>
+    <dataField name=" Sale" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:G10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name=" Veg Biryani" fld="1" baseField="0" baseItem="0"/>
+    <dataField name=" Maggi" fld="2" baseField="0" baseItem="0"/>
+    <dataField name=" Non-veg Biryani" fld="3" baseField="0" baseItem="0"/>
+    <dataField name=" Egg Bhurji" fld="4" baseField="0" baseItem="0"/>
+    <dataField name=" Omlet" fld="5" baseField="0" baseItem="0"/>
+    <dataField name=" Chiken Kabab" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="4" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H185" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="8">
@@ -23862,11 +23835,11 @@
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -43732,36 +43705,36 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22" t="s">
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22" t="s">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -44749,7 +44722,7 @@
       <c r="C47" s="8">
         <v>93</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="18" t="s">
         <v>69</v>
       </c>
       <c r="L47" s="8">
@@ -44781,7 +44754,7 @@
       <c r="C48" s="8">
         <v>112</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="K48" s="18" t="s">
         <v>70</v>
       </c>
       <c r="L48" s="8">
@@ -44813,7 +44786,7 @@
       <c r="C49" s="8">
         <v>186</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="18" t="s">
         <v>71</v>
       </c>
       <c r="L49" s="8">
@@ -44845,7 +44818,7 @@
       <c r="C50" s="8">
         <v>240</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K50" s="18" t="s">
         <v>72</v>
       </c>
       <c r="L50" s="8">
@@ -44877,7 +44850,7 @@
       <c r="C51" s="8">
         <v>310</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="K51" s="18" t="s">
         <v>73</v>
       </c>
       <c r="L51" s="8">
@@ -44909,7 +44882,7 @@
       <c r="C52" s="8">
         <v>360</v>
       </c>
-      <c r="K52" s="25" t="s">
+      <c r="K52" s="18" t="s">
         <v>74</v>
       </c>
       <c r="L52" s="8">
@@ -44941,7 +44914,7 @@
       <c r="C53" s="8">
         <v>1301</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="18" t="s">
         <v>44</v>
       </c>
       <c r="L53" s="8">
@@ -44975,7 +44948,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="8">
@@ -44986,7 +44959,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="8">
@@ -44997,7 +44970,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="8">
@@ -45008,7 +44981,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="8">
@@ -45019,7 +44992,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="8">
@@ -45030,7 +45003,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="8">
@@ -45041,7 +45014,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="8">
@@ -45069,7 +45042,7 @@
   <dimension ref="Q22:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45081,186 +45054,186 @@
   </cols>
   <sheetData>
     <row r="22" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="24">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="20">
+      <c r="Q25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="24">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q26" s="19" t="s">
+      <c r="Q26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="24">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q27" s="19" t="s">
+      <c r="Q27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="24">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q28" s="19" t="s">
+      <c r="Q28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="24">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23" t="s">
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
     </row>
     <row r="39" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q39" s="23" t="s">
+      <c r="Q39" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="S39" s="23" t="s">
+      <c r="S39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="T39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="U39" s="23" t="s">
+      <c r="U39" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q40" s="23" t="s">
+      <c r="Q40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="21">
         <v>100</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="22">
         <v>0.1</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="22">
         <v>0.2</v>
       </c>
-      <c r="U40" s="24">
+      <c r="U40" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q41" s="23" t="s">
+      <c r="Q41" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="21">
         <v>50</v>
       </c>
-      <c r="S41" s="24">
+      <c r="S41" s="22">
         <v>0.1</v>
       </c>
-      <c r="T41" s="24">
+      <c r="T41" s="22">
         <v>0.2</v>
       </c>
-      <c r="U41" s="24">
+      <c r="U41" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q42" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="23">
+      <c r="Q42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="21">
         <v>150</v>
       </c>
-      <c r="S42" s="24">
+      <c r="S42" s="22">
         <v>0.1</v>
       </c>
-      <c r="T42" s="24">
+      <c r="T42" s="22">
         <v>0.2</v>
       </c>
-      <c r="U42" s="24">
+      <c r="U42" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q43" s="23" t="s">
+      <c r="Q43" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R43" s="23">
+      <c r="R43" s="21">
         <v>80</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="22">
         <v>0.1</v>
       </c>
-      <c r="T43" s="24">
+      <c r="T43" s="22">
         <v>0.2</v>
       </c>
-      <c r="U43" s="24">
+      <c r="U43" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q44" s="23" t="s">
+      <c r="Q44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="R44" s="23">
+      <c r="R44" s="21">
         <v>70</v>
       </c>
-      <c r="S44" s="24">
+      <c r="S44" s="22">
         <v>0.1</v>
       </c>
-      <c r="T44" s="24">
+      <c r="T44" s="22">
         <v>0.2</v>
       </c>
-      <c r="U44" s="24">
+      <c r="U44" s="22">
         <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="Q45" s="23" t="s">
+      <c r="Q45" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="23">
+      <c r="R45" s="21">
         <v>170</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="22">
         <v>0.1</v>
       </c>
-      <c r="T45" s="24">
+      <c r="T45" s="22">
         <v>0.2</v>
       </c>
-      <c r="U45" s="24">
+      <c r="U45" s="22">
         <v>0.3</v>
       </c>
     </row>
